--- a/documentation/Sprint Backlog  Burndown.xlsx
+++ b/documentation/Sprint Backlog  Burndown.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcorley\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ja00150\Desktop\TextAdventureGame\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C86FA19-BAF0-4882-AC44-363173A7A31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1B9F8B-7A73-4C69-886E-C06B52EA1787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1346,7 +1346,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1400,7 +1400,9 @@
       <c r="C3" s="1">
         <v>1.5</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1413,7 +1415,9 @@
       <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>

--- a/documentation/Sprint Backlog  Burndown.xlsx
+++ b/documentation/Sprint Backlog  Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ja00150\Desktop\TextAdventureGame\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1B9F8B-7A73-4C69-886E-C06B52EA1787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B61C6F6-8FDB-4224-AE2F-DAF905F1513A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3075" yWindow="3075" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1346,7 +1346,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1430,7 +1430,9 @@
       <c r="C5" s="1">
         <v>0.5</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1443,7 +1445,9 @@
       <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1456,7 +1460,9 @@
       <c r="C7" s="1">
         <v>4</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>

--- a/documentation/Sprint Backlog  Burndown.xlsx
+++ b/documentation/Sprint Backlog  Burndown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ja00150\Desktop\TextAdventureGame\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B61C6F6-8FDB-4224-AE2F-DAF905F1513A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C409557-D758-4384-BD45-F5C5E487195D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1345,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1475,7 +1475,9 @@
       <c r="C8" s="1">
         <v>3.5</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1488,7 +1490,9 @@
       <c r="C9" s="1">
         <v>0.5</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
